--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,35 +437,56 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.390788755123801</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.057721761500193</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.201188321554301</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.196505850696464</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3076903195442789</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.1684156569024544</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.17724119669887</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7558479687417927</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>-0.08510950074080006</v>
       </c>
+      <c r="B6" t="n">
+        <v>-0.1127096247864402</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.06541263270605759</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03108846231321761</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.057721761500193</v>
       </c>
+      <c r="C2" t="n">
+        <v>-4.693393667675708</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.196505850696464</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.171375753587524</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.1684156569024544</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.06850756529651124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7558479687417927</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4260526063017495</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>-0.1127096247864402</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1257255649142397</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -487,6 +505,9 @@
       </c>
       <c r="B7" t="n">
         <v>0.03108846231321761</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01878386401140213</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -452,7 +452,7 @@
         <v>-5.057721761500193</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.693393667675708</v>
+        <v>-4.681004024549235</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.196505850696464</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.171375753587524</v>
+        <v>-1.165899493033517</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.1684156569024544</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06850756529651124</v>
+        <v>-0.05393960539424965</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7558479687417927</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4260526063017495</v>
+        <v>-0.4168956827577189</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>-0.1127096247864402</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1257255649142397</v>
+        <v>-0.1239422036827855</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.03108846231321761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01878386401140213</v>
+        <v>0.01913423197059164</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.057721761500193</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.681004024549235</v>
+        <v>-4.693393667675708</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.332345593343109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.971195360520306</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.196505850696464</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.165899493033517</v>
+        <v>-1.171375753587524</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.135929708662731</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.085622402784564</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.1684156569024544</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05393960539424965</v>
+        <v>-0.06850756529651124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.004874729275821801</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05974085484037735</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7558479687417927</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4168956827577189</v>
+        <v>-0.4260526063017495</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1731028680127843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02475535579086744</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>-0.1127096247864402</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1239422036827855</v>
+        <v>-0.1257255649142397</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.1309219845841394</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1313236579696304</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.03108846231321761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01913423197059164</v>
+        <v>0.01878386401140213</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01141172071177196</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00600914518709653</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-3.971195360520306</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.617295823047665</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.085622402784564</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.02579886059102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.05974085484037735</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.09894509103249677</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.02475535579086744</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1763141148197331</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.1313236579696304</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1287083621109437</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +568,9 @@
       </c>
       <c r="E7" t="n">
         <v>0.00600914518709653</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001933352941843619</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.617295823047665</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.276245566794106</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.02579886059102</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.9602167586071133</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.09894509103249677</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1248556155428424</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.1763141148197331</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.2893198926055696</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1287083621109437</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.1240599596291339</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -571,6 +589,9 @@
       </c>
       <c r="F7" t="n">
         <v>0.001933352941843619</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.001139512298713394</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.276245566794106</v>
       </c>
+      <c r="H2" t="n">
+        <v>-2.952119783540897</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-0.9602167586071133</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.8917292695472314</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1248556155428424</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.1395366496128581</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.2893198926055696</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.3705400179719806</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.1240599596291339</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.1180326429189958</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -592,6 +610,9 @@
       </c>
       <c r="G7" t="n">
         <v>-0.001139512298713394</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.003413521168699039</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-2.952119783540897</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.647711405194101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.8917292695472314</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.8225495869919915</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.1395366496128581</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.1448155830986595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.3705400179719806</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4258400334048975</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.1180326429189958</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.1111105767764171</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -613,6 +631,9 @@
       </c>
       <c r="H7" t="n">
         <v>-0.003413521168699039</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.00504088155813542</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.647711405194101</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.364756474796637</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.8225495869919915</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.754383027889035</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.1448155830986595</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1423116762466941</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4258400334048975</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4602639385905953</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.1111105767764171</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.103668259835933</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -634,6 +652,9 @@
       </c>
       <c r="I7" t="n">
         <v>-0.00504088155813542</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.006145073278280579</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.364756474796637</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.104136640640814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.754383027889035</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.688514236017149</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1423116762466941</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1334525478232563</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.4602639385905953</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.4781143042680772</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.103668259835933</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.09599805647853633</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -655,6 +673,9 @@
       </c>
       <c r="J7" t="n">
         <v>-0.006145073278280579</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.006829444692234672</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.104136640640814</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.866056828721481</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.688514236017149</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6258768222197444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1334525478232563</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1194874309340573</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.4781143042680772</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.4830305572386328</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.09599805647853633</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.0883263291898722</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -676,6 +694,9 @@
       </c>
       <c r="K7" t="n">
         <v>-0.006829444692234672</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.007181127897620227</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.866056828721481</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.650198346177752</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6258768222197444</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.5671136466492142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1194874309340573</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.101500161869705</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.4830305572386328</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.4780642155040957</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.0883263291898722</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.08082508925182437</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -697,6 +715,9 @@
       </c>
       <c r="L7" t="n">
         <v>-0.007181127897620227</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.007273411794356983</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.650198346177752</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.455848759049917</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.5671136466492142</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5126300103773446</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.101500161869705</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.08042266720032701</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.4780642155040957</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.465750119263759</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.08082508925182437</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.07362142894961393</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -718,6 +736,9 @@
       </c>
       <c r="M7" t="n">
         <v>-0.007273411794356983</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.007167558124269454</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.455848759049917</v>
       </c>
+      <c r="O2" t="n">
+        <v>-1.282010457652405</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.127490096490725</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5126300103773446</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4626403529148906</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.4172087221114515</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.08042266720032701</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.05704889946834561</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.03204889941959649</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.465750119263759</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.448172929842699</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4270283932206927</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.07362142894961393</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.06680551348815365</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.06043743938363743</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -739,6 +775,12 @@
       </c>
       <c r="N7" t="n">
         <v>-0.007167558124269454</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.006914363506040602</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.006555558134232935</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-1.127490096490725</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.9909711803226209</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.4172087221114515</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3762833307307694</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.03204889941959649</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.005982616046975406</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.4270283932206927</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.4036790834515055</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.06043743938363743</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.05455311687492909</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -781,6 +799,9 @@
       </c>
       <c r="P7" t="n">
         <v>-0.006555558134232935</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.006125067903031776</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.9909711803226209</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.8710720280687282</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3762833307307694</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.3397256286653595</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.005982616046975406</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.0206868373767098</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.4036790834515055</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.3792045404015236</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.05455311687492909</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.04916928626824736</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -802,6 +820,9 @@
       </c>
       <c r="Q7" t="n">
         <v>-0.006125067903031776</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.0056501490636304</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.8710720280687282</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.7663912261888475</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.3397256286653595</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.3073344091306605</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.0206868373767098</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.04758073332698465</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.3792045404015236</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.3544458849742652</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.04916928626824736</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.04428776191617467</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -823,6 +841,9 @@
       </c>
       <c r="R7" t="n">
         <v>-0.0056501490636304</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.005152400877019441</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.7663912261888475</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.6755425150049119</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.3073344091306605</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.2788655126013902</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.04758073332698465</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.07439324464050351</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.3544458849742652</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.3300451279016096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.04428776191617467</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.03989899046218778</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -844,6 +862,9 @@
       </c>
       <c r="S7" t="n">
         <v>-0.005152400877019441</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.004648661999372109</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.6755425150049119</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.5971808585585533</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.2788655126013902</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.2540476985000026</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.07439324464050351</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.1008810083284655</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.3300451279016096</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.3064794848409542</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.03989899046218778</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.0359850050333793</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -865,6 +883,9 @@
       </c>
       <c r="T7" t="n">
         <v>-0.004648661999372109</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.00415179743166456</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.5971808585585533</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.5300212474197383</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.2540476985000026</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.2325952323777826</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.1008810083284655</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.1268537639217258</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.3064794848409542</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.2840910739448239</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.0359850050333793</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.03252185211652859</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -886,6 +904,9 @@
       </c>
       <c r="U7" t="n">
         <v>-0.00415179743166456</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.003671383860071788</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.5300212474197383</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.472851585652652</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.2325952323777826</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.2142176960002241</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.1268537639217258</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.1521660475918497</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.2840910739448239</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.2631124071977544</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.03252185211652859</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.02948156239274384</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -907,6 +925,9 @@
       </c>
       <c r="V7" t="n">
         <v>-0.003671383860071788</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.003214301872597121</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.472851585652652</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.4245408251708793</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.2142176960002241</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.1986274777604747</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.1521660475918497</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.1767098928231793</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.2631124071977544</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.2436880992702084</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.02948156239274384</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.02683373085453836</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -928,6 +946,9 @@
       </c>
       <c r="W7" t="n">
         <v>-0.003214301872597121</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.002785243839917509</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.4245408251708793</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.3840433373215732</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.1986274777604747</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.1855453472768876</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.1767098928231793</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.2004084691367516</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.2436880992702084</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.2258932129271047</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.02683373085453836</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.02454676527700943</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -949,6 +967,9 @@
       </c>
       <c r="X7" t="n">
         <v>-0.002785243839917509</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.002387146240732124</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.3840433373215732</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.3504003549622273</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.1855453472768876</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.1747044649421208</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.2004084691367516</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.22321057974734</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.2258932129271047</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.2097486430702951</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.02454676527700943</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.02258885578479995</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -970,6 +988,9 @@
       </c>
       <c r="Y7" t="n">
         <v>-0.002387146240732124</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.0020215549591007</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.3504003549622273</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.3227391792922467</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.1747044649421208</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.1658531270724499</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.22321057974734</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.245085934773985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.2097486430702951</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.1952339164157401</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.02258885578479995</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.02092871205098091</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -991,6 +1009,9 @@
       </c>
       <c r="Z7" t="n">
         <v>-0.0020215549591007</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.001688931648651832</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.3227391792922467</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.3002707240356529</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.1658531270724499</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.1587565015166007</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.245085934773985</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.2660211168123791</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.1952339164157401</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.182297753896247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.02092871205098091</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.01953610874321421</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1012,6 +1030,9 @@
       </c>
       <c r="AA7" t="n">
         <v>-0.001688931648651832</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.001388908705295488</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.3002707240356529</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2822858643618495</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.1587565015166007</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.1531975677124307</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.2660211168123791</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.2860161588144295</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.182297753896247</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.1708667106486217</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.01953610874321421</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.01838227431048369</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1033,6 +1051,9 @@
       </c>
       <c r="AB7" t="n">
         <v>-0.001388908705295488</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.001120499765776237</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2822858643618495</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2681509679190437</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.1531975677124307</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.1489774393208985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.2860161588144295</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.3050816591781604</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.1708667106486217</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.1608521757247799</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.01838227431048369</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.01744015315089184</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1054,6 +1072,9 @@
       </c>
       <c r="AC7" t="n">
         <v>-0.001120499765776237</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.0008822719936032459</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2681509679190437</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2573029090856456</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.1489774393208985</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.1459152165152395</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.3050816591781604</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.3232363649119213</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.1608521757247799</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.1521559817408477</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.01744015315089184</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.01668456665153225</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1075,6 +1093,9 @@
       </c>
       <c r="AD7" t="n">
         <v>-0.0008822719936032459</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.0006724857567078938</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2573029090856456</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2492438034989119</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.1459152165152395</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.1438474883912783</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.3232363649119213</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.3405051601284234</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.1521559817408477</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.1446748443917454</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.01668456665153225</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.0160922945510698</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1096,6 +1114,9 @@
       </c>
       <c r="AE7" t="n">
         <v>-0.0006724857567078938</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.0004892066641771975</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2492438034989119</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2435356465986097</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.1438474883912783</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.1426275833496518</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.3405051601284234</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.3569174035598829</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.1446748443917454</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.1383038236245141</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.0160922945510698</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.01564209452931869</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1117,6 +1135,9 @@
       </c>
       <c r="AF7" t="n">
         <v>-0.0004892066641771975</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.0003303943271663681</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2435356465986097</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2397949959043131</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.1426275833496518</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.1421246462200188</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.3569174035598829</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.3725055650162605</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.1383038236245141</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.13293897255076</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.01564209452931869</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.01531467484713888</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1138,6 +1156,9 @@
       </c>
       <c r="AG7" t="n">
         <v>-0.0003303943271663681</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.0001939716506718066</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2397949959043131</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2376878007145786</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.1421246462200188</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.1422226049020676</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.3725055650162605</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.3873041165821789</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.13293897255076</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.1284793169818693</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.01531467484713888</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.01509263220722582</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1159,6 +1177,9 @@
       </c>
       <c r="AH7" t="n">
         <v>-0.0001939716506718066</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-7.787795287901122e-05</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2376878007145786</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2369244536871992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.1422226049020676</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.1428190759699999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.3873041165821789</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.4013486397812732</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.1284793169818693</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.1248282877650182</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.01509263220722582</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.01496036474071056</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1180,6 +1198,9 @@
       </c>
       <c r="AI7" t="n">
         <v>-7.787795287901122e-05</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.989125104531189e-05</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2369244536871992</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2372551152747784</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.1428190759699999</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.143824247646902</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.4013486397812732</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.4146751148920691</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.1248282877650182</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.1218947097800725</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.01496036474071056</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.01490396810357216</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1201,6 +1219,9 @@
       </c>
       <c r="AJ7" t="n">
         <v>1.989125104531189e-05</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.000101255374294543</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2372551152747784</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2384653433209067</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.143824247646902</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1451597694660676</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.4146751148920691</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.4273193630703433</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.1218947097800725</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.1195934353751332</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.01490396810357216</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.01491112104954436</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1222,6 +1240,9 @@
       </c>
       <c r="AK7" t="n">
         <v>0.000101255374294543</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0001680287295618764</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2384653433209067</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2403720454626314</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1451597694660676</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.1467576705009903</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.4273193630703433</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.4393166159322828</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.1195934353751332</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.1178456959937104</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.01491112104954436</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.01497096549342126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1243,6 +1261,9 @@
       </c>
       <c r="AL7" t="n">
         <v>0.0001680287295618764</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.000221907601462377</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2403720454626314</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2428197606405492</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.1467576705009903</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.148559322006911</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.4393166159322828</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.4507011908050672</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.1178456959937104</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.1165792335895716</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.01497096549342126</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.01507398495470871</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1264,6 +1282,9 @@
       </c>
       <c r="AM7" t="n">
         <v>0.000221907601462377</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0002644629537769787</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2428197606405492</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2456772673956507</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.148559322006911</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1505144554507702</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.4507011908050672</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.4615062529882635</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.1165792335895716</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.1157282629462317</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.01507398495470871</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.01521188434396017</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1285,6 +1303,9 @@
       </c>
       <c r="AN7" t="n">
         <v>0.0002644629537769787</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0002971375461418844</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2456772673956507</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.248834510229239</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1505144554507702</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1525802430222603</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.4615062529882635</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.4717636491247058</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.1157282629462317</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.1152333070325326</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.01521188434396017</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.01537747329402468</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1306,6 +1324,9 @@
       </c>
       <c r="AO7" t="n">
         <v>0.0002971375461418844</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0003212464426550776</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.248834510229239</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2521998306948624</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1525802430222603</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1547204446510756</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.4717636491247058</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.4815037981887111</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.1152333070325326</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.1150409398602404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.01537747329402468</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.01556455462038716</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1327,6 +1345,9 @@
       </c>
       <c r="AP7" t="n">
         <v>0.0003212464426550776</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0003379800731600315</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2521998306948624</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2556974867241651</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1547204446510756</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1569046231653616</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.4815037981887111</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.4907556286968355</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.1150409398602404</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.1151034648028196</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.01556455462038716</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.01576781899654028</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1348,6 +1366,9 @@
       </c>
       <c r="AQ7" t="n">
         <v>0.0003379800731600315</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0003484091601125962</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2556974867241651</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2592654416657765</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1569046231653616</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1591074273942843</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.4907556286968355</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.4995465525648511</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.1151034648028196</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.1153785508395952</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.01576781899654028</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.01598274653260819</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1369,6 +1387,9 @@
       </c>
       <c r="AR7" t="n">
         <v>0.0003484091601125962</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0003534909531493083</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2592654416657765</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2628534033925431</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1591074273942843</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1613079416429058</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.4995465525648511</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.5079024676051713</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.1153785508395952</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.1158288445731994</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.01598274653260819</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.01620551563164173</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1390,6 +1408,9 @@
       </c>
       <c r="AS7" t="n">
         <v>0.0003534909531493083</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0003540763226355592</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_6.xlsx
+++ b/predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2628534033925431</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.266421093405192</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1613079416429058</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1634890989651023</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.5079024676051713</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.5158477820098858</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.1158288445731994</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1164215720114229</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.01620551563164173</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.01643291925383199</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1411,6 +1429,9 @@
       </c>
       <c r="AT7" t="n">
         <v>0.0003540763226355592</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0003509173552484546</v>
       </c>
     </row>
   </sheetData>
